--- a/daco3/Excel/Dochadzka.xlsx
+++ b/daco3/Excel/Dochadzka.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Meno</t>
   </si>
@@ -379,6 +379,9 @@
     <t>15:58</t>
   </si>
   <si>
+    <t>08:10</t>
+  </si>
+  <si>
     <t>13:34</t>
   </si>
   <si>
@@ -389,6 +392,12 @@
   </si>
   <si>
     <t>11:21</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:14</t>
   </si>
   <si>
     <t>Celkovo</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -2734,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E134" s="0" t="s">
         <v>17</v>
@@ -4944,10 +4953,10 @@
         <v>16</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -4961,7 +4970,7 @@
         <v>16</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E265" s="0" t="s">
         <v>17</v>
@@ -4978,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E266" s="0" t="s">
         <v>17</v>
@@ -4995,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E267" s="0" t="s">
         <v>17</v>
@@ -5003,13 +5012,13 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C268" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>18</v>
@@ -5020,7 +5029,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>6</v>
@@ -5029,7 +5038,7 @@
         <v>17</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>8</v>
@@ -5037,7 +5046,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>6</v>
@@ -5046,7 +5055,7 @@
         <v>17</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E270" s="0" t="s">
         <v>8</v>
@@ -5054,7 +5063,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>6</v>
@@ -5063,7 +5072,7 @@
         <v>17</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>8</v>
@@ -5071,7 +5080,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>6</v>
@@ -5080,7 +5089,7 @@
         <v>17</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E272" s="0" t="s">
         <v>8</v>
@@ -5088,7 +5097,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>6</v>
@@ -5097,15 +5106,15 @@
         <v>17</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>6</v>
@@ -5114,7 +5123,7 @@
         <v>17</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="E274" s="0" t="s">
         <v>17</v>
@@ -5122,7 +5131,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>6</v>
@@ -5131,7 +5140,7 @@
         <v>17</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E275" s="0" t="s">
         <v>17</v>
@@ -5139,7 +5148,7 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>6</v>
@@ -5148,15 +5157,15 @@
         <v>17</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>6</v>
@@ -5168,12 +5177,12 @@
         <v>42</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>6</v>
@@ -5182,26 +5191,213 @@
         <v>17</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C279" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E279" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B280" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="0">
+        <v>16</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B281" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" s="0">
+        <v>16</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E281" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="0">
+        <v>17</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E282" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B283" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" s="0">
+        <v>10</v>
+      </c>
+      <c r="D283" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="0">
+        <v>17</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E284" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" s="0">
+        <v>17</v>
+      </c>
+      <c r="D285" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E285" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B286" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="0">
+        <v>17</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287" s="0">
+        <v>17</v>
+      </c>
+      <c r="D287" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E287" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="0">
+        <v>17</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" s="0">
+        <v>17</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="0">
+        <v>17</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5235,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -5246,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -5257,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -5268,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -5279,7 +5475,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -5290,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -5301,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -5312,7 +5508,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -5323,7 +5519,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -5334,7 +5530,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -5345,7 +5541,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/daco3/Excel/Dochadzka.xlsx
+++ b/daco3/Excel/Dochadzka.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Meno</t>
   </si>
@@ -388,16 +388,97 @@
     <t>13:37</t>
   </si>
   <si>
-    <t>17:34</t>
-  </si>
-  <si>
     <t>11:21</t>
   </si>
   <si>
-    <t>06:00</t>
+    <t>06:01</t>
   </si>
   <si>
     <t>06:14</t>
+  </si>
+  <si>
+    <t>07:14</t>
+  </si>
+  <si>
+    <t>10:54</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>14:54</t>
+  </si>
+  <si>
+    <t>11:17</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
+    <t>16:14</t>
+  </si>
+  <si>
+    <t>17:32</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>09:05</t>
+  </si>
+  <si>
+    <t>09:52</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>06:52</t>
+  </si>
+  <si>
+    <t>06:53</t>
+  </si>
+  <si>
+    <t>11:34</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>12:03</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>15:36</t>
   </si>
   <si>
     <t>Celkovo</t>
@@ -455,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -4990,29 +5071,29 @@
         <v>122</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C267" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>6</v>
@@ -5021,7 +5102,7 @@
         <v>17</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E268" s="0" t="s">
         <v>8</v>
@@ -5029,7 +5110,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>6</v>
@@ -5038,7 +5119,7 @@
         <v>17</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E269" s="0" t="s">
         <v>8</v>
@@ -5046,7 +5127,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>6</v>
@@ -5055,7 +5136,7 @@
         <v>17</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E270" s="0" t="s">
         <v>8</v>
@@ -5063,7 +5144,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>6</v>
@@ -5072,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E271" s="0" t="s">
         <v>8</v>
@@ -5080,7 +5161,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>6</v>
@@ -5089,15 +5170,15 @@
         <v>17</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>6</v>
@@ -5106,7 +5187,7 @@
         <v>17</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E273" s="0" t="s">
         <v>17</v>
@@ -5114,7 +5195,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>6</v>
@@ -5123,7 +5204,7 @@
         <v>17</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E274" s="0" t="s">
         <v>17</v>
@@ -5131,7 +5212,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>6</v>
@@ -5140,15 +5221,15 @@
         <v>17</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>6</v>
@@ -5160,12 +5241,12 @@
         <v>42</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>6</v>
@@ -5174,27 +5255,27 @@
         <v>17</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C278" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -5208,10 +5289,10 @@
         <v>16</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280">
@@ -5233,16 +5314,16 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C281" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E281" s="0" t="s">
         <v>17</v>
@@ -5250,16 +5331,16 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C282" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E282" s="0" t="s">
         <v>17</v>
@@ -5267,24 +5348,24 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C283" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>6</v>
@@ -5293,15 +5374,15 @@
         <v>17</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>6</v>
@@ -5313,12 +5394,12 @@
         <v>29</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>6</v>
@@ -5327,7 +5408,7 @@
         <v>17</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E286" s="0" t="s">
         <v>8</v>
@@ -5335,7 +5416,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>6</v>
@@ -5344,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E287" s="0" t="s">
         <v>8</v>
@@ -5352,7 +5433,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>6</v>
@@ -5361,15 +5442,15 @@
         <v>17</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>6</v>
@@ -5381,23 +5462,1315 @@
         <v>31</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" s="0">
+        <v>18</v>
+      </c>
+      <c r="D290" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" s="0">
+        <v>18</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B290" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C290" s="0">
-        <v>17</v>
-      </c>
-      <c r="D290" s="0" t="s">
+      <c r="B292" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" s="0">
+        <v>18</v>
+      </c>
+      <c r="D292" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" s="0">
+        <v>18</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="0">
+        <v>18</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" s="0">
+        <v>18</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="0">
+        <v>18</v>
+      </c>
+      <c r="D296" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E296" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" s="0">
+        <v>18</v>
+      </c>
+      <c r="D297" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E297" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" s="0">
+        <v>18</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E298" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" s="0">
+        <v>18</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="0">
+        <v>18</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E300" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301" s="0">
+        <v>18</v>
+      </c>
+      <c r="D301" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B302" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" s="0">
+        <v>18</v>
+      </c>
+      <c r="D302" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E302" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" s="0">
+        <v>18</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E303" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="0">
+        <v>18</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E304" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" s="0">
+        <v>18</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="0">
+        <v>18</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E306" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" s="0">
+        <v>18</v>
+      </c>
+      <c r="D307" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E307" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="0">
+        <v>18</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E308" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" s="0">
+        <v>18</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E309" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="0">
+        <v>18</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" s="0">
+        <v>18</v>
+      </c>
+      <c r="D311" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E311" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" s="0">
+        <v>18</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" s="0">
+        <v>18</v>
+      </c>
+      <c r="D313" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E313" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" s="0">
+        <v>18</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E314" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" s="0">
+        <v>18</v>
+      </c>
+      <c r="D315" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E290" s="0" t="s">
+      <c r="E315" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" s="0">
+        <v>18</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E316" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" s="0">
+        <v>19</v>
+      </c>
+      <c r="D317" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E317" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="0">
+        <v>19</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E318" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319" s="0">
+        <v>19</v>
+      </c>
+      <c r="D319" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E319" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320" s="0">
+        <v>19</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E320" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" s="0">
+        <v>19</v>
+      </c>
+      <c r="D321" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E321" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" s="0">
+        <v>19</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E322" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" s="0">
+        <v>19</v>
+      </c>
+      <c r="D323" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E323" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" s="0">
+        <v>19</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E324" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" s="0">
+        <v>19</v>
+      </c>
+      <c r="D325" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E325" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" s="0">
+        <v>19</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E326" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327" s="0">
+        <v>19</v>
+      </c>
+      <c r="D327" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E327" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" s="0">
+        <v>19</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E328" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" s="0">
+        <v>19</v>
+      </c>
+      <c r="D329" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E329" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="0">
+        <v>19</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E330" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331" s="0">
+        <v>19</v>
+      </c>
+      <c r="D331" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E331" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" s="0">
+        <v>19</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" s="0">
+        <v>19</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" s="0">
+        <v>20</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" s="0">
+        <v>20</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" s="0">
+        <v>20</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" s="0">
+        <v>20</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" s="0">
+        <v>20</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" s="0">
+        <v>20</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" s="0">
+        <v>20</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" s="0">
+        <v>20</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E341" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342" s="0">
+        <v>20</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E342" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" s="0">
+        <v>20</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E343" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" s="0">
+        <v>20</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E344" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" s="0">
+        <v>20</v>
+      </c>
+      <c r="D345" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346" s="0">
+        <v>20</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E346" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" s="0">
+        <v>20</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E347" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" s="0">
+        <v>20</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E348" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" s="0">
+        <v>20</v>
+      </c>
+      <c r="D349" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E349" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C350" s="0">
+        <v>20</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E350" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" s="0">
+        <v>20</v>
+      </c>
+      <c r="D351" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E351" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" s="0">
+        <v>21</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E352" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353" s="0">
+        <v>21</v>
+      </c>
+      <c r="D353" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E353" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" s="0">
+        <v>21</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E354" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B355" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355" s="0">
+        <v>21</v>
+      </c>
+      <c r="D355" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E355" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C356" s="0">
+        <v>21</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E356" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357" s="0">
+        <v>21</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E357" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" s="0">
+        <v>21</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E358" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359" s="0">
+        <v>21</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E359" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360" s="0">
+        <v>21</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E360" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361" s="0">
+        <v>21</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E361" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" s="0">
+        <v>20</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E362" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" s="0">
+        <v>20</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E363" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" s="0">
+        <v>20</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E364" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" s="0">
+        <v>20</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E365" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" s="0">
+        <v>20</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E366" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5431,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -5442,7 +6815,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
@@ -5453,7 +6826,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -5464,7 +6837,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5">
@@ -5475,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -5486,7 +6859,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -5497,7 +6870,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
@@ -5508,7 +6881,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9">
@@ -5519,7 +6892,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -5530,7 +6903,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -5541,7 +6914,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/daco3/Excel/Dochadzka.xlsx
+++ b/daco3/Excel/Dochadzka.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Meno</t>
   </si>
@@ -454,9 +454,6 @@
     <t>09:52</t>
   </si>
   <si>
-    <t>06:17</t>
-  </si>
-  <si>
     <t>06:52</t>
   </si>
   <si>
@@ -479,6 +476,63 @@
   </si>
   <si>
     <t>15:36</t>
+  </si>
+  <si>
+    <t>06:44</t>
+  </si>
+  <si>
+    <t>07:25</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>11:49</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>07:09</t>
+  </si>
+  <si>
+    <t>10:08</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>07:07</t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>11:35</t>
+  </si>
+  <si>
+    <t>11:41</t>
+  </si>
+  <si>
+    <t>12:09</t>
+  </si>
+  <si>
+    <t>15:34</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>12:42</t>
+  </si>
+  <si>
+    <t>13:33</t>
   </si>
   <si>
     <t>Celkovo</t>
@@ -536,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E366"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -6504,13 +6558,13 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D351" s="0" t="s">
         <v>145</v>
@@ -6521,7 +6575,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>6</v>
@@ -6538,7 +6592,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>6</v>
@@ -6547,7 +6601,7 @@
         <v>21</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="E353" s="0" t="s">
         <v>8</v>
@@ -6555,7 +6609,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>6</v>
@@ -6564,7 +6618,7 @@
         <v>21</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E354" s="0" t="s">
         <v>8</v>
@@ -6572,7 +6626,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>6</v>
@@ -6581,7 +6635,7 @@
         <v>21</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E355" s="0" t="s">
         <v>8</v>
@@ -6598,15 +6652,15 @@
         <v>21</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E356" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>6</v>
@@ -6623,7 +6677,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>6</v>
@@ -6632,7 +6686,7 @@
         <v>21</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="E358" s="0" t="s">
         <v>17</v>
@@ -6640,7 +6694,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>6</v>
@@ -6657,7 +6711,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>6</v>
@@ -6666,7 +6720,7 @@
         <v>21</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E360" s="0" t="s">
         <v>17</v>
@@ -6674,16 +6728,16 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C361" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E361" s="0" t="s">
         <v>17</v>
@@ -6700,7 +6754,7 @@
         <v>20</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="E362" s="0" t="s">
         <v>17</v>
@@ -6717,10 +6771,10 @@
         <v>20</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E363" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="364">
@@ -6759,18 +6813,1871 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B366" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C366" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D366" s="0" t="s">
         <v>153</v>
       </c>
       <c r="E366" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" s="0">
+        <v>23</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E367" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" s="0">
+        <v>23</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E368" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" s="0">
+        <v>23</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E369" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370" s="0">
+        <v>23</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" s="0">
+        <v>23</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E371" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" s="0">
+        <v>23</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E372" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" s="0">
+        <v>23</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" s="0">
+        <v>23</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E374" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375" s="0">
+        <v>23</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E375" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="0">
+        <v>23</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E376" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377" s="0">
+        <v>23</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E377" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="0">
+        <v>23</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E378" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379" s="0">
+        <v>23</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E379" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C380" s="0">
+        <v>23</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E380" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381" s="0">
+        <v>23</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E381" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" s="0">
+        <v>23</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E382" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383" s="0">
+        <v>23</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E383" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="0">
+        <v>23</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E384" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385" s="0">
+        <v>23</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E385" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="0">
+        <v>23</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E386" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387" s="0">
+        <v>23</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E387" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" s="0">
+        <v>23</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E388" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389" s="0">
+        <v>23</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E389" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="0">
+        <v>23</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E390" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" s="0">
+        <v>23</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E391" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" s="0">
+        <v>23</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E392" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" s="0">
+        <v>23</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E393" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" s="0">
+        <v>24</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E394" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" s="0">
+        <v>24</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E395" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="0">
+        <v>24</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E396" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" s="0">
+        <v>24</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E397" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" s="0">
+        <v>24</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E398" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" s="0">
+        <v>24</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E399" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" s="0">
+        <v>24</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E400" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" s="0">
+        <v>24</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E401" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" s="0">
+        <v>24</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E402" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" s="0">
+        <v>24</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E403" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="0">
+        <v>24</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E404" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" s="0">
+        <v>24</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E405" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" s="0">
+        <v>24</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E406" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" s="0">
+        <v>24</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E407" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" s="0">
+        <v>24</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E408" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" s="0">
+        <v>24</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E409" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" s="0">
+        <v>24</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E410" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" s="0">
+        <v>24</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E411" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" s="0">
+        <v>24</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E412" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" s="0">
+        <v>24</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E413" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="0">
+        <v>24</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415" s="0">
+        <v>24</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" s="0">
+        <v>24</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417" s="0">
+        <v>24</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="0">
+        <v>24</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419" s="0">
+        <v>24</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" s="0">
+        <v>24</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421" s="0">
+        <v>24</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" s="0">
+        <v>24</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" s="0">
+        <v>25</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" s="0">
+        <v>25</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" s="0">
+        <v>25</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" s="0">
+        <v>25</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" s="0">
+        <v>25</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E427" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" s="0">
+        <v>25</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E428" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" s="0">
+        <v>25</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E429" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" s="0">
+        <v>25</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E430" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" s="0">
+        <v>25</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E431" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" s="0">
+        <v>25</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E432" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" s="0">
+        <v>25</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E433" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" s="0">
+        <v>25</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E434" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" s="0">
+        <v>25</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E435" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" s="0">
+        <v>25</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E436" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437" s="0">
+        <v>25</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E437" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" s="0">
+        <v>25</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E438" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439" s="0">
+        <v>25</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E439" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" s="0">
+        <v>25</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E440" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441" s="0">
+        <v>25</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E441" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" s="0">
+        <v>25</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E442" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443" s="0">
+        <v>25</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E443" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" s="0">
+        <v>25</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E444" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" s="0">
+        <v>25</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E445" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C446" s="0">
+        <v>25</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E446" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" s="0">
+        <v>25</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E447" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" s="0">
+        <v>25</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E448" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" s="0">
+        <v>25</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E449" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" s="0">
+        <v>25</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E450" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" s="0">
+        <v>25</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E451" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" s="0">
+        <v>26</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E452" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453" s="0">
+        <v>26</v>
+      </c>
+      <c r="D453" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E453" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" s="0">
+        <v>26</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E454" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455" s="0">
+        <v>26</v>
+      </c>
+      <c r="D455" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E455" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="0">
+        <v>26</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E456" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457" s="0">
+        <v>26</v>
+      </c>
+      <c r="D457" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E457" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" s="0">
+        <v>26</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E458" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" s="0">
+        <v>26</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E459" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" s="0">
+        <v>26</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E460" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B461" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" s="0">
+        <v>26</v>
+      </c>
+      <c r="D461" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E461" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" s="0">
+        <v>26</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E462" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" s="0">
+        <v>26</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E463" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" s="0">
+        <v>26</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E464" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" s="0">
+        <v>26</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E465" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" s="0">
+        <v>26</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E466" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="0">
+        <v>26</v>
+      </c>
+      <c r="D467" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E467" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" s="0">
+        <v>26</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E468" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469" s="0">
+        <v>26</v>
+      </c>
+      <c r="D469" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E469" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" s="0">
+        <v>26</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E470" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471" s="0">
+        <v>26</v>
+      </c>
+      <c r="D471" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E471" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C472" s="0">
+        <v>26</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E472" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473" s="0">
+        <v>26</v>
+      </c>
+      <c r="D473" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E473" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C474" s="0">
+        <v>26</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E474" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475" s="0">
+        <v>20</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E475" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6804,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -6815,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -6826,7 +8733,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -6837,7 +8744,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -6848,7 +8755,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -6859,7 +8766,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
@@ -6870,7 +8777,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -6881,7 +8788,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -6892,7 +8799,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -6903,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -6914,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
